--- a/APP/UFC 316.xlsx
+++ b/APP/UFC 316.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\APP\online\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3820451D-B435-4949-901F-F019803E8EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D59B5C-EAF2-4821-A6A8-BD6F09EF70A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{50FFC809-6C74-4994-8FAB-32ACF7647C1D}"/>
   </bookViews>
@@ -470,7 +470,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -503,7 +503,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -601,7 +601,7 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
         <v>19</v>
